--- a/Game/GameDesign/Piege.xlsx
+++ b/Game/GameDesign/Piege.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -18,15 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
-    <t>Piege</t>
-  </si>
-  <si>
-    <t>Comment déjouer le piege</t>
-  </si>
-  <si>
-    <t>Riviere</t>
-  </si>
-  <si>
     <t>Création / déplacement d'un pont</t>
   </si>
   <si>
@@ -48,12 +39,6 @@
     <t>Boulet qui tombe d'une montagne</t>
   </si>
   <si>
-    <t>Clicuer pour le réduire / détruire</t>
-  </si>
-  <si>
-    <t>Champigon géant -&gt; mur</t>
-  </si>
-  <si>
     <t>Cliquer sur le champi pour projeter le perso</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
     <t>Destruction des racines</t>
   </si>
   <si>
-    <t>Placer un bouclier ou autre pour faire "Paraplui"</t>
-  </si>
-  <si>
     <t>Feuille grimpante</t>
   </si>
   <si>
@@ -96,12 +78,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>Objets roulant : Boule de neige (montagne), tronc d'arbre (foret)</t>
-  </si>
-  <si>
-    <t>Cliquer pour le dévier les objets</t>
-  </si>
-  <si>
     <t>Sol modifié  : Boue -&gt; pieds qui s'enfoncent (foret), marshmallow nuage (sol collant caramel), glisse (montagne)</t>
   </si>
   <si>
@@ -112,6 +88,30 @@
   </si>
   <si>
     <t>Mettre une planche</t>
+  </si>
+  <si>
+    <t>Piège</t>
+  </si>
+  <si>
+    <t>Comment déjouer le piège</t>
+  </si>
+  <si>
+    <t>Rivière</t>
+  </si>
+  <si>
+    <t>Placer un bouclier ou autre pour faire "Parapluie"</t>
+  </si>
+  <si>
+    <t>Cliquer pour le réduire / détruire</t>
+  </si>
+  <si>
+    <t>Champignon géant -&gt; mur</t>
+  </si>
+  <si>
+    <t>Objets roulants : Boule de neige (montagne), tronc d'arbre (foret)</t>
+  </si>
+  <si>
+    <t>Cliquer pour dévier les objets</t>
   </si>
 </sst>
 </file>
@@ -158,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +456,7 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,135 +467,135 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
